--- a/excel/exported/adonis_schema.xlsx
+++ b/excel/exported/adonis_schema.xlsx
@@ -18,157 +18,157 @@
     <t>1503250034279_user</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.1666667</t>
+    <t>2021-03-27 11:27:43.6433333</t>
   </si>
   <si>
     <t>1503250034280_token</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.1800000</t>
+    <t>2021-03-27 11:27:43.6700000</t>
   </si>
   <si>
     <t>1596811591825_permission_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.2100000</t>
+    <t>2021-03-27 11:27:43.6800000</t>
   </si>
   <si>
     <t>1596811604657_role_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.2166667</t>
+    <t>2021-03-27 11:27:43.6933333</t>
   </si>
   <si>
     <t>1596811636039_permission_role_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.2266667</t>
+    <t>2021-03-27 11:27:43.7066667</t>
   </si>
   <si>
     <t>1596811670889_permission_user_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.2366667</t>
+    <t>2021-03-27 11:27:43.7166667</t>
   </si>
   <si>
     <t>1596811679345_role_user_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.2500000</t>
+    <t>2021-03-27 11:27:43.7266667</t>
   </si>
   <si>
     <t>1596825832127_pallet_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.2600000</t>
+    <t>2021-03-27 11:27:43.7366667</t>
   </si>
   <si>
     <t>1596826988341_ingredient_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.2633333</t>
+    <t>2021-03-27 11:27:43.7400000</t>
   </si>
   <si>
     <t>1596827010126_supplier_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.2700000</t>
+    <t>2021-03-27 11:27:43.7500000</t>
   </si>
   <si>
     <t>1596827745578_warehouse_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.2766667</t>
+    <t>2021-03-27 11:27:43.7566667</t>
   </si>
   <si>
     <t>1596828023227_arrival_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.2866667</t>
+    <t>2021-03-27 11:27:43.7633333</t>
   </si>
   <si>
     <t>1596828040076_detail_arrival_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.2933333</t>
+    <t>2021-03-27 11:27:43.7733333</t>
   </si>
   <si>
     <t>1597653887891_temporary_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.3100000</t>
+    <t>2021-03-27 11:27:43.7800000</t>
   </si>
   <si>
     <t>1599378819983_leave_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.3200000</t>
+    <t>2021-03-27 11:27:43.7900000</t>
   </si>
   <si>
     <t>1599379493268_detail_leave_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.3266667</t>
+    <t>2021-03-27 11:27:43.7966667</t>
   </si>
   <si>
     <t>1601781921181_grade_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.3300000</t>
+    <t>2021-03-27 11:27:43.8000000</t>
   </si>
   <si>
     <t>1601788646319_sugar_pallet_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.3400000</t>
+    <t>2021-03-27 11:27:43.8100000</t>
   </si>
   <si>
     <t>1601796227228_sugar_header_schema</t>
   </si>
   <si>
-    <t>2020-10-06 19:53:58.3466667</t>
+    <t>2021-03-27 11:27:43.8166667</t>
   </si>
   <si>
     <t>1601796239098_sugar_detail_schema</t>
   </si>
   <si>
-    <t>2020-10-08 12:16:46.3166667</t>
+    <t>2021-03-27 11:27:43.8233333</t>
   </si>
   <si>
     <t>1602217234907_arrival_schema</t>
   </si>
   <si>
-    <t>2020-10-09 11:32:04.2600000</t>
+    <t>2021-03-27 11:27:43.8766667</t>
   </si>
   <si>
     <t>1603605951653_leave_schema</t>
   </si>
   <si>
-    <t>2020-11-04 23:45:42.2200000</t>
+    <t>2021-03-27 11:27:43.9000000</t>
   </si>
   <si>
     <t>1603606618025_ingredient_type_schema</t>
   </si>
   <si>
-    <t>2020-11-04 23:45:42.2633333</t>
+    <t>2021-03-27 11:27:43.9100000</t>
   </si>
   <si>
     <t>1608460326772_inventory_schema</t>
   </si>
   <si>
-    <t>2021-02-23 23:24:37.4233333</t>
+    <t>2021-03-27 11:27:43.9166667</t>
   </si>
   <si>
     <t>1608984158724_arrival_schema</t>
   </si>
   <si>
-    <t>2021-02-23 23:24:37.6666667</t>
+    <t>2021-03-27 11:27:43.9266667</t>
   </si>
   <si>
     <t>1609055133883_leave_schema</t>
   </si>
   <si>
-    <t>2021-02-23 23:24:37.6900000</t>
+    <t>2021-03-27 11:27:43.9300000</t>
   </si>
 </sst>
 </file>
@@ -483,13 +483,13 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>1002</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
@@ -497,13 +497,13 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>1003</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
@@ -511,13 +511,13 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>1004</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>43</v>
@@ -525,13 +525,13 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>1005</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -539,13 +539,13 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>1006</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>47</v>
@@ -553,13 +553,13 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>1007</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>49</v>
@@ -567,13 +567,13 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>1008</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>

--- a/excel/exported/adonis_schema.xlsx
+++ b/excel/exported/adonis_schema.xlsx
@@ -18,157 +18,157 @@
     <t>1503250034279_user</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.6433333</t>
+    <t>2020-10-06 19:53:58.1666667</t>
   </si>
   <si>
     <t>1503250034280_token</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.6700000</t>
+    <t>2020-10-06 19:53:58.1800000</t>
   </si>
   <si>
     <t>1596811591825_permission_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.6800000</t>
+    <t>2020-10-06 19:53:58.2100000</t>
   </si>
   <si>
     <t>1596811604657_role_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.6933333</t>
+    <t>2020-10-06 19:53:58.2166667</t>
   </si>
   <si>
     <t>1596811636039_permission_role_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.7066667</t>
+    <t>2020-10-06 19:53:58.2266667</t>
   </si>
   <si>
     <t>1596811670889_permission_user_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.7166667</t>
+    <t>2020-10-06 19:53:58.2366667</t>
   </si>
   <si>
     <t>1596811679345_role_user_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.7266667</t>
+    <t>2020-10-06 19:53:58.2500000</t>
   </si>
   <si>
     <t>1596825832127_pallet_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.7366667</t>
+    <t>2020-10-06 19:53:58.2600000</t>
   </si>
   <si>
     <t>1596826988341_ingredient_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.7400000</t>
+    <t>2020-10-06 19:53:58.2633333</t>
   </si>
   <si>
     <t>1596827010126_supplier_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.7500000</t>
+    <t>2020-10-06 19:53:58.2700000</t>
   </si>
   <si>
     <t>1596827745578_warehouse_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.7566667</t>
+    <t>2020-10-06 19:53:58.2766667</t>
   </si>
   <si>
     <t>1596828023227_arrival_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.7633333</t>
+    <t>2020-10-06 19:53:58.2866667</t>
   </si>
   <si>
     <t>1596828040076_detail_arrival_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.7733333</t>
+    <t>2020-10-06 19:53:58.2933333</t>
   </si>
   <si>
     <t>1597653887891_temporary_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.7800000</t>
+    <t>2020-10-06 19:53:58.3100000</t>
   </si>
   <si>
     <t>1599378819983_leave_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.7900000</t>
+    <t>2020-10-06 19:53:58.3200000</t>
   </si>
   <si>
     <t>1599379493268_detail_leave_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.7966667</t>
+    <t>2020-10-06 19:53:58.3266667</t>
   </si>
   <si>
     <t>1601781921181_grade_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.8000000</t>
+    <t>2020-10-06 19:53:58.3300000</t>
   </si>
   <si>
     <t>1601788646319_sugar_pallet_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.8100000</t>
+    <t>2020-10-06 19:53:58.3400000</t>
   </si>
   <si>
     <t>1601796227228_sugar_header_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.8166667</t>
+    <t>2020-10-06 19:53:58.3466667</t>
   </si>
   <si>
     <t>1601796239098_sugar_detail_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.8233333</t>
+    <t>2020-10-08 12:16:46.3166667</t>
   </si>
   <si>
     <t>1602217234907_arrival_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.8766667</t>
+    <t>2020-10-09 11:32:04.2600000</t>
   </si>
   <si>
     <t>1603605951653_leave_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.9000000</t>
+    <t>2020-11-04 23:45:42.2200000</t>
   </si>
   <si>
     <t>1603606618025_ingredient_type_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.9100000</t>
+    <t>2020-11-04 23:45:42.2633333</t>
   </si>
   <si>
     <t>1608460326772_inventory_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.9166667</t>
+    <t>2021-02-23 23:24:37.4233333</t>
   </si>
   <si>
     <t>1608984158724_arrival_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.9266667</t>
+    <t>2021-02-23 23:24:37.6666667</t>
   </si>
   <si>
     <t>1609055133883_leave_schema</t>
   </si>
   <si>
-    <t>2021-03-27 11:27:43.9300000</t>
+    <t>2021-02-23 23:24:37.6900000</t>
   </si>
 </sst>
 </file>
@@ -483,13 +483,13 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>20</v>
+        <v>1002</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
@@ -497,13 +497,13 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>21</v>
+        <v>1003</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
@@ -511,13 +511,13 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>22</v>
+        <v>1004</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
         <v>43</v>
@@ -525,13 +525,13 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>23</v>
+        <v>1005</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -539,13 +539,13 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>24</v>
+        <v>1006</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
         <v>47</v>
@@ -553,13 +553,13 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>25</v>
+        <v>1007</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
         <v>49</v>
@@ -567,13 +567,13 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>26</v>
+        <v>1008</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>
